--- a/Security/WAFEC_Evaluation_Response_Matrix.xlsx
+++ b/Security/WAFEC_Evaluation_Response_Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6036" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6036" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="754">
   <si>
     <t>Describe the reference hardware configuration. Is the application delivered integrated with an operating system? Or does it require an operating system to be installed on? Which operating systems are supported (including versions)? Are there other optional hardware components that can increase performance further (such as SSL encryption cards)?</t>
   </si>
@@ -2131,9 +2131,6 @@
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>THE DOCUMENT IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND. IN NO EVENT SHALL THE AUTHOR(S) OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY.</t>
-  </si>
-  <si>
     <t>Do Not Remove Branding, Intro, Revision or Attributes as due. This work is licensed under the Creative Commons Attribution License.</t>
   </si>
   <si>
@@ -2285,6 +2282,15 @@
   </si>
   <si>
     <t>Request body - RAW/Base64</t>
+  </si>
+  <si>
+    <t>Git Repository</t>
+  </si>
+  <si>
+    <t>https://github.com/nilayparikh/architecture-scaffolding/tree/master/Security</t>
+  </si>
+  <si>
+    <t>THE DOCUMENT IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND. IN NO EVENT SHALL THE CONTRIBUTOR(S) OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY.</t>
   </si>
 </sst>
 </file>
@@ -2581,12 +2587,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2602,9 +2602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2619,6 +2616,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2929,7 +2935,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2987,7 +2993,7 @@
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>688</v>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>688</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>688</v>
@@ -3011,7 +3017,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>688</v>
@@ -3020,18 +3026,25 @@
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>701</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -3039,16 +3052,16 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>700</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="57" t="s">
+        <v>753</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3062,9 +3075,10 @@
     <hyperlink ref="A13" r:id="rId3"/>
     <hyperlink ref="A14" r:id="rId4"/>
     <hyperlink ref="A15" r:id="rId5"/>
+    <hyperlink ref="A19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3090,56 +3104,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -3451,56 +3465,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -3523,7 +3537,7 @@
         <v>9.1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="14"/>
@@ -3542,7 +3556,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -3550,7 +3564,7 @@
         <v>630</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K8" s="33"/>
     </row>
@@ -3559,7 +3573,7 @@
         <v>631</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K9" s="33"/>
     </row>
@@ -3568,7 +3582,7 @@
         <v>9.4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="14"/>
@@ -3578,7 +3592,7 @@
         <v>9.5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="14"/>
@@ -3588,7 +3602,7 @@
         <v>9.6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K12" s="33"/>
     </row>
@@ -3763,38 +3777,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3817,23 +3832,23 @@
     <col min="7" max="7" width="50" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:7" s="50" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
         <v>671</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>680</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>678</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="53" t="s">
         <v>682</v>
       </c>
     </row>
@@ -3908,22 +3923,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>721</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>722</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>690</v>
       </c>
       <c r="F5" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>723</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -3931,22 +3946,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>725</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>726</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>727</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>690</v>
       </c>
       <c r="F6" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>728</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -3954,22 +3969,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>731</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>732</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>690</v>
       </c>
       <c r="F7" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>733</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -3977,22 +3992,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>736</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>737</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>690</v>
       </c>
       <c r="F8" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>738</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -4029,64 +4044,64 @@
     <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="53" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" s="51" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="36" t="s">
         <v>710</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="22"/>
       <c r="N2" s="36"/>
     </row>
@@ -5068,7 +5083,7 @@
         <v>158</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
@@ -5078,7 +5093,7 @@
         <v>159</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
@@ -5256,64 +5271,64 @@
     <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="53" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" s="51" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="36" t="s">
         <v>710</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="22"/>
       <c r="N2" s="36"/>
       <c r="O2" s="10"/>
@@ -6167,33 +6182,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="36"/>
@@ -6202,26 +6217,26 @@
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="22"/>
       <c r="N2" s="36"/>
       <c r="O2" s="10"/>
@@ -6755,56 +6770,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -7253,56 +7268,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -7883,56 +7898,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -8317,56 +8332,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
